--- a/Code/Results/Cases/Case_2_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01257654352501</v>
+        <v>1.035348512579854</v>
       </c>
       <c r="D2">
-        <v>1.032908334679707</v>
+        <v>1.045986838666213</v>
       </c>
       <c r="E2">
-        <v>1.029928539553258</v>
+        <v>1.05357434130816</v>
       </c>
       <c r="F2">
-        <v>1.039468323365955</v>
+        <v>1.059326269084725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049367304060373</v>
+        <v>1.040963432075383</v>
       </c>
       <c r="J2">
-        <v>1.034387490700429</v>
+        <v>1.040462777023537</v>
       </c>
       <c r="K2">
-        <v>1.043927478963702</v>
+        <v>1.048753539353578</v>
       </c>
       <c r="L2">
-        <v>1.040986092620959</v>
+        <v>1.056319933861278</v>
       </c>
       <c r="M2">
-        <v>1.050403879785919</v>
+        <v>1.062056078240965</v>
       </c>
       <c r="N2">
-        <v>1.015332377636396</v>
+        <v>1.01745013317492</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016100237176197</v>
+        <v>1.03610039450289</v>
       </c>
       <c r="D3">
-        <v>1.035603272174235</v>
+        <v>1.046591047304709</v>
       </c>
       <c r="E3">
-        <v>1.033366097991359</v>
+        <v>1.054390830399724</v>
       </c>
       <c r="F3">
-        <v>1.042767654739408</v>
+        <v>1.060094361289297</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050327726390252</v>
+        <v>1.041128256344664</v>
       </c>
       <c r="J3">
-        <v>1.036161412849721</v>
+        <v>1.040859167824291</v>
       </c>
       <c r="K3">
-        <v>1.045800001021221</v>
+        <v>1.049169838865575</v>
       </c>
       <c r="L3">
-        <v>1.043589136788227</v>
+        <v>1.056949485923447</v>
       </c>
       <c r="M3">
-        <v>1.052881066415315</v>
+        <v>1.062638494680713</v>
       </c>
       <c r="N3">
-        <v>1.015926367192222</v>
+        <v>1.017582306873081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018341174855253</v>
+        <v>1.03658759920725</v>
       </c>
       <c r="D4">
-        <v>1.037320203647612</v>
+        <v>1.046982651030516</v>
       </c>
       <c r="E4">
-        <v>1.035560424880282</v>
+        <v>1.054920611545419</v>
       </c>
       <c r="F4">
-        <v>1.044871786485597</v>
+        <v>1.060592507373086</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050930941397948</v>
+        <v>1.041234109023939</v>
       </c>
       <c r="J4">
-        <v>1.037287069674377</v>
+        <v>1.041115643479675</v>
       </c>
       <c r="K4">
-        <v>1.046988142517428</v>
+        <v>1.049439155367126</v>
       </c>
       <c r="L4">
-        <v>1.045247805237765</v>
+        <v>1.057357651156764</v>
       </c>
       <c r="M4">
-        <v>1.054457209900464</v>
+        <v>1.063015830692418</v>
       </c>
       <c r="N4">
-        <v>1.016303230972762</v>
+        <v>1.017667804444458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019274157933137</v>
+        <v>1.036792582555313</v>
       </c>
       <c r="D5">
-        <v>1.038035723343773</v>
+        <v>1.047147432576238</v>
       </c>
       <c r="E5">
-        <v>1.03647594310597</v>
+        <v>1.055143678436314</v>
       </c>
       <c r="F5">
-        <v>1.045749198543234</v>
+        <v>1.060802198504844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051180235904399</v>
+        <v>1.041278417277317</v>
       </c>
       <c r="J5">
-        <v>1.037755101458539</v>
+        <v>1.041223460783169</v>
       </c>
       <c r="K5">
-        <v>1.047482129879032</v>
+        <v>1.049552360923865</v>
       </c>
       <c r="L5">
-        <v>1.045939120843041</v>
+        <v>1.057529434250782</v>
       </c>
       <c r="M5">
-        <v>1.055113567135864</v>
+        <v>1.063174574367365</v>
       </c>
       <c r="N5">
-        <v>1.016459910220254</v>
+        <v>1.017703740537214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019430283228355</v>
+        <v>1.036827009633661</v>
       </c>
       <c r="D6">
-        <v>1.038155498495464</v>
+        <v>1.047175108940471</v>
       </c>
       <c r="E6">
-        <v>1.036629259378257</v>
+        <v>1.055181152627767</v>
       </c>
       <c r="F6">
-        <v>1.045896105364743</v>
+        <v>1.060837422368554</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051221843554699</v>
+        <v>1.041285845534018</v>
       </c>
       <c r="J6">
-        <v>1.037833384797815</v>
+        <v>1.041241563448092</v>
       </c>
       <c r="K6">
-        <v>1.047564752981145</v>
+        <v>1.049571367708002</v>
       </c>
       <c r="L6">
-        <v>1.046054849091012</v>
+        <v>1.057558288502754</v>
       </c>
       <c r="M6">
-        <v>1.055223410051368</v>
+        <v>1.063201234622547</v>
       </c>
       <c r="N6">
-        <v>1.016486115564947</v>
+        <v>1.017709773936189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.0183536768674</v>
+        <v>1.03659033756873</v>
       </c>
       <c r="D7">
-        <v>1.037329788923772</v>
+        <v>1.0469848522574</v>
       </c>
       <c r="E7">
-        <v>1.035572685225089</v>
+        <v>1.0549235908158</v>
       </c>
       <c r="F7">
-        <v>1.044883538403381</v>
+        <v>1.060595308216038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050934289276394</v>
+        <v>1.041234701829223</v>
       </c>
       <c r="J7">
-        <v>1.037293343794719</v>
+        <v>1.041117084161288</v>
       </c>
       <c r="K7">
-        <v>1.046994764684422</v>
+        <v>1.049440668086441</v>
       </c>
       <c r="L7">
-        <v>1.045257065955781</v>
+        <v>1.057359945784876</v>
       </c>
       <c r="M7">
-        <v>1.054466004549961</v>
+        <v>1.063017951396827</v>
       </c>
       <c r="N7">
-        <v>1.016305331371972</v>
+        <v>1.017668284652718</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013775653830405</v>
+        <v>1.035602471219987</v>
       </c>
       <c r="D8">
-        <v>1.033824761009358</v>
+        <v>1.046190900042536</v>
       </c>
       <c r="E8">
-        <v>1.031096617314757</v>
+        <v>1.053849974400453</v>
       </c>
       <c r="F8">
-        <v>1.040589837764423</v>
+        <v>1.059585612281725</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049695703686727</v>
+        <v>1.041019300313244</v>
       </c>
       <c r="J8">
-        <v>1.034991662892361</v>
+        <v>1.040596741617253</v>
       </c>
       <c r="K8">
-        <v>1.044565247221044</v>
+        <v>1.048894240692604</v>
       </c>
       <c r="L8">
-        <v>1.041871216825325</v>
+        <v>1.056532526590453</v>
       </c>
       <c r="M8">
-        <v>1.051246692003081</v>
+        <v>1.062252809469844</v>
       </c>
       <c r="N8">
-        <v>1.015534692919054</v>
+        <v>1.017494807339476</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.005396721928327</v>
+        <v>1.033867070494493</v>
       </c>
       <c r="D9">
-        <v>1.027435378247253</v>
+        <v>1.04479684556605</v>
       </c>
       <c r="E9">
-        <v>1.02296980377375</v>
+        <v>1.051969388790264</v>
       </c>
       <c r="F9">
-        <v>1.032778972713941</v>
+        <v>1.05781521925033</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047370143982018</v>
+        <v>1.040633645421118</v>
       </c>
       <c r="J9">
-        <v>1.0307603368571</v>
+        <v>1.039679769025857</v>
       </c>
       <c r="K9">
-        <v>1.040098482912415</v>
+        <v>1.04793099143253</v>
       </c>
       <c r="L9">
-        <v>1.035700888953235</v>
+        <v>1.055080737509587</v>
       </c>
       <c r="M9">
-        <v>1.045361713496582</v>
+        <v>1.060908237516747</v>
       </c>
       <c r="N9">
-        <v>1.014117595960177</v>
+        <v>1.017188927031335</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9995832268889976</v>
+        <v>1.032713846963709</v>
       </c>
       <c r="D10">
-        <v>1.023021938959917</v>
+        <v>1.043870948615184</v>
       </c>
       <c r="E10">
-        <v>1.017376946556112</v>
+        <v>1.050723368562417</v>
       </c>
       <c r="F10">
-        <v>1.027393629919199</v>
+        <v>1.056641017851074</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045718780199537</v>
+        <v>1.040372494253357</v>
       </c>
       <c r="J10">
-        <v>1.02781339027201</v>
+        <v>1.039068489951914</v>
       </c>
       <c r="K10">
-        <v>1.036987604706316</v>
+        <v>1.047288658934468</v>
       </c>
       <c r="L10">
-        <v>1.031439386242784</v>
+        <v>1.054117174098038</v>
       </c>
       <c r="M10">
-        <v>1.041285292718072</v>
+        <v>1.060014454028772</v>
       </c>
       <c r="N10">
-        <v>1.013130483967789</v>
+        <v>1.016984906253997</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.997007724238086</v>
+        <v>1.032215393033288</v>
       </c>
       <c r="D11">
-        <v>1.021071884899835</v>
+        <v>1.043470873572091</v>
       </c>
       <c r="E11">
-        <v>1.014910378617458</v>
+        <v>1.050185682928031</v>
       </c>
       <c r="F11">
-        <v>1.025016297399203</v>
+        <v>1.056134040874401</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044978621668733</v>
+        <v>1.040258462679981</v>
       </c>
       <c r="J11">
-        <v>1.026505517386463</v>
+        <v>1.038803824443431</v>
       </c>
       <c r="K11">
-        <v>1.035607064396598</v>
+        <v>1.047010500531672</v>
       </c>
       <c r="L11">
-        <v>1.029556480489699</v>
+        <v>1.053700982335762</v>
       </c>
       <c r="M11">
-        <v>1.039481375711852</v>
+        <v>1.059628074616983</v>
       </c>
       <c r="N11">
-        <v>1.012692380674583</v>
+        <v>1.016896545069566</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9960419393127351</v>
+        <v>1.032030382178245</v>
       </c>
       <c r="D12">
-        <v>1.020341463373372</v>
+        <v>1.043322396786642</v>
       </c>
       <c r="E12">
-        <v>1.013987155115642</v>
+        <v>1.049986242654594</v>
       </c>
       <c r="F12">
-        <v>1.02412613729014</v>
+        <v>1.055945948660325</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044699818125647</v>
+        <v>1.04021596412963</v>
       </c>
       <c r="J12">
-        <v>1.026014761169808</v>
+        <v>1.038705520590026</v>
       </c>
       <c r="K12">
-        <v>1.035089060749182</v>
+        <v>1.046907177949729</v>
       </c>
       <c r="L12">
-        <v>1.028851201387795</v>
+        <v>1.053546547932665</v>
       </c>
       <c r="M12">
-        <v>1.038805269218849</v>
+        <v>1.059484653297056</v>
       </c>
       <c r="N12">
-        <v>1.012527989396853</v>
+        <v>1.016863721440377</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9962495228968121</v>
+        <v>1.032070061397321</v>
       </c>
       <c r="D13">
-        <v>1.020498420340648</v>
+        <v>1.043354239695627</v>
       </c>
       <c r="E13">
-        <v>1.014185512744693</v>
+        <v>1.050029010558216</v>
       </c>
       <c r="F13">
-        <v>1.024317406274671</v>
+        <v>1.055986285014183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04475979954084</v>
+        <v>1.040225086632693</v>
       </c>
       <c r="J13">
-        <v>1.026120257093615</v>
+        <v>1.038726606866047</v>
       </c>
       <c r="K13">
-        <v>1.035200412942358</v>
+        <v>1.046929341068745</v>
       </c>
       <c r="L13">
-        <v>1.029002756203291</v>
+        <v>1.053579667467946</v>
       </c>
       <c r="M13">
-        <v>1.038950573886285</v>
+        <v>1.059515413229203</v>
       </c>
       <c r="N13">
-        <v>1.012563327944865</v>
+        <v>1.016870762318952</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9969280806526992</v>
+        <v>1.032200097169386</v>
       </c>
       <c r="D14">
-        <v>1.021011633490166</v>
+        <v>1.043458597793461</v>
       </c>
       <c r="E14">
-        <v>1.014834209854832</v>
+        <v>1.050169191405508</v>
       </c>
       <c r="F14">
-        <v>1.024942863290157</v>
+        <v>1.056118488579489</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044955655362634</v>
+        <v>1.04025495263173</v>
       </c>
       <c r="J14">
-        <v>1.02646505341391</v>
+        <v>1.038795698512599</v>
       </c>
       <c r="K14">
-        <v>1.035564353369852</v>
+        <v>1.047001959890515</v>
       </c>
       <c r="L14">
-        <v>1.029498303290682</v>
+        <v>1.05368821351101</v>
       </c>
       <c r="M14">
-        <v>1.039425613308625</v>
+        <v>1.059616217372536</v>
       </c>
       <c r="N14">
-        <v>1.012678826242578</v>
+        <v>1.016893831903326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9973449411026496</v>
+        <v>1.032280234730766</v>
       </c>
       <c r="D15">
-        <v>1.021327027876647</v>
+        <v>1.043522913402814</v>
       </c>
       <c r="E15">
-        <v>1.015232952864453</v>
+        <v>1.050255598637407</v>
       </c>
       <c r="F15">
-        <v>1.025327276683822</v>
+        <v>1.056199972992239</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045075811837602</v>
+        <v>1.040273335247259</v>
       </c>
       <c r="J15">
-        <v>1.026676832041391</v>
+        <v>1.038838268819328</v>
       </c>
       <c r="K15">
-        <v>1.035787893380348</v>
+        <v>1.047046702500208</v>
       </c>
       <c r="L15">
-        <v>1.029802839498936</v>
+        <v>1.053755113269649</v>
       </c>
       <c r="M15">
-        <v>1.039717492073781</v>
+        <v>1.059678339066642</v>
       </c>
       <c r="N15">
-        <v>1.012749766835449</v>
+        <v>1.016908045538458</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9997528957638461</v>
+        <v>1.032746946830346</v>
       </c>
       <c r="D16">
-        <v>1.023150516913957</v>
+        <v>1.043897518243085</v>
       </c>
       <c r="E16">
-        <v>1.017539675217604</v>
+        <v>1.050759092144397</v>
       </c>
       <c r="F16">
-        <v>1.027550424149356</v>
+        <v>1.056674695196594</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045767364381515</v>
+        <v>1.040380042175899</v>
       </c>
       <c r="J16">
-        <v>1.027899504433983</v>
+        <v>1.039086055515702</v>
       </c>
       <c r="K16">
-        <v>1.037078505871842</v>
+        <v>1.04730711900723</v>
       </c>
       <c r="L16">
-        <v>1.031563536109526</v>
+        <v>1.054144817394107</v>
       </c>
       <c r="M16">
-        <v>1.041404176569505</v>
+        <v>1.06004011028766</v>
       </c>
       <c r="N16">
-        <v>1.01315932976332</v>
+        <v>1.016990770138789</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.001247491674062</v>
+        <v>1.033039945220073</v>
       </c>
       <c r="D17">
-        <v>1.024283745482479</v>
+        <v>1.044132725479102</v>
       </c>
       <c r="E17">
-        <v>1.018974416091661</v>
+        <v>1.05107541704338</v>
       </c>
       <c r="F17">
-        <v>1.028932582069467</v>
+        <v>1.056972868368968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046194363650792</v>
+        <v>1.040446722454617</v>
       </c>
       <c r="J17">
-        <v>1.02865781488206</v>
+        <v>1.039241492498064</v>
       </c>
       <c r="K17">
-        <v>1.037878980727705</v>
+        <v>1.047470465961849</v>
       </c>
       <c r="L17">
-        <v>1.032657737939275</v>
+        <v>1.054389547596741</v>
       </c>
       <c r="M17">
-        <v>1.042451647984724</v>
+        <v>1.060267211049471</v>
       </c>
       <c r="N17">
-        <v>1.013413340487519</v>
+        <v>1.017042656389431</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.002113673518485</v>
+        <v>1.033210932875576</v>
       </c>
       <c r="D18">
-        <v>1.024940990779577</v>
+        <v>1.04426999922135</v>
       </c>
       <c r="E18">
-        <v>1.019806972057732</v>
+        <v>1.051260102288253</v>
       </c>
       <c r="F18">
-        <v>1.02973440676797</v>
+        <v>1.057146928450724</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04644100990962</v>
+        <v>1.040485524084257</v>
       </c>
       <c r="J18">
-        <v>1.029097065948412</v>
+        <v>1.039332158328045</v>
       </c>
       <c r="K18">
-        <v>1.038342663272808</v>
+        <v>1.047565741044207</v>
       </c>
       <c r="L18">
-        <v>1.03329235094952</v>
+        <v>1.054532394567078</v>
       </c>
       <c r="M18">
-        <v>1.043058892286648</v>
+        <v>1.060399736201435</v>
       </c>
       <c r="N18">
-        <v>1.013560474380553</v>
+        <v>1.017072918911512</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002408082123494</v>
+        <v>1.033269249884428</v>
       </c>
       <c r="D19">
-        <v>1.025164465389945</v>
+        <v>1.044316819754991</v>
       </c>
       <c r="E19">
-        <v>1.020090130827413</v>
+        <v>1.051323105354945</v>
       </c>
       <c r="F19">
-        <v>1.030007076392567</v>
+        <v>1.05720630223932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04652470331</v>
+        <v>1.040498738834094</v>
       </c>
       <c r="J19">
-        <v>1.029246325514206</v>
+        <v>1.039363073343019</v>
       </c>
       <c r="K19">
-        <v>1.038500225887891</v>
+        <v>1.047598226927856</v>
       </c>
       <c r="L19">
-        <v>1.033508130920869</v>
+        <v>1.054581118594599</v>
       </c>
       <c r="M19">
-        <v>1.043265321122055</v>
+        <v>1.060444934164643</v>
       </c>
       <c r="N19">
-        <v>1.013610470817841</v>
+        <v>1.01708323732108</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.001087716639321</v>
+        <v>1.033008500288583</v>
       </c>
       <c r="D20">
-        <v>1.024162550016809</v>
+        <v>1.044107481540551</v>
       </c>
       <c r="E20">
-        <v>1.018820929262588</v>
+        <v>1.051041459918385</v>
       </c>
       <c r="F20">
-        <v>1.028784743079144</v>
+        <v>1.056940862638332</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046148801216884</v>
+        <v>1.040439577786433</v>
       </c>
       <c r="J20">
-        <v>1.028576772930633</v>
+        <v>1.039224815357335</v>
       </c>
       <c r="K20">
-        <v>1.037793431740803</v>
+        <v>1.047452940620555</v>
       </c>
       <c r="L20">
-        <v>1.032540716112637</v>
+        <v>1.054363280006863</v>
       </c>
       <c r="M20">
-        <v>1.042339651395573</v>
+        <v>1.06024283895185</v>
       </c>
       <c r="N20">
-        <v>1.013386194088108</v>
+        <v>1.017037089673688</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9967285174663122</v>
+        <v>1.03216180107414</v>
       </c>
       <c r="D21">
-        <v>1.02086067483361</v>
+        <v>1.043427863360177</v>
       </c>
       <c r="E21">
-        <v>1.014643381247584</v>
+        <v>1.050127903889235</v>
       </c>
       <c r="F21">
-        <v>1.024758880505788</v>
+        <v>1.056079551788956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044898088553158</v>
+        <v>1.040246161757002</v>
       </c>
       <c r="J21">
-        <v>1.026363657677203</v>
+        <v>1.038775352604228</v>
       </c>
       <c r="K21">
-        <v>1.035457327244372</v>
+        <v>1.046980575505488</v>
       </c>
       <c r="L21">
-        <v>1.029352541342344</v>
+        <v>1.053656245037146</v>
       </c>
       <c r="M21">
-        <v>1.039285894927473</v>
+        <v>1.05958653036695</v>
       </c>
       <c r="N21">
-        <v>1.012644861167652</v>
+        <v>1.016887038546772</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9939346968543674</v>
+        <v>1.031630242042819</v>
       </c>
       <c r="D22">
-        <v>1.018749331706827</v>
+        <v>1.043001307208026</v>
       </c>
       <c r="E22">
-        <v>1.011975958224377</v>
+        <v>1.049555136716098</v>
       </c>
       <c r="F22">
-        <v>1.022186355656766</v>
+        <v>1.055539294748317</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044089236859964</v>
+        <v>1.040123731397344</v>
       </c>
       <c r="J22">
-        <v>1.024943429900799</v>
+        <v>1.038492785392114</v>
       </c>
       <c r="K22">
-        <v>1.033958291685541</v>
+        <v>1.046683569003249</v>
       </c>
       <c r="L22">
-        <v>1.027313844639133</v>
+        <v>1.053212617696725</v>
       </c>
       <c r="M22">
-        <v>1.037330747269761</v>
+        <v>1.059174446371351</v>
       </c>
       <c r="N22">
-        <v>1.012169120345024</v>
+        <v>1.016792682082593</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9954209124090021</v>
+        <v>1.031911955579656</v>
       </c>
       <c r="D23">
-        <v>1.019872020774174</v>
+        <v>1.043227361232575</v>
       </c>
       <c r="E23">
-        <v>1.01339398282562</v>
+        <v>1.0498586169504</v>
       </c>
       <c r="F23">
-        <v>1.023554114114305</v>
+        <v>1.055825572832642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044520191243747</v>
+        <v>1.040188711701922</v>
       </c>
       <c r="J23">
-        <v>1.025699105098933</v>
+        <v>1.03864257652928</v>
       </c>
       <c r="K23">
-        <v>1.034755885464256</v>
+        <v>1.046841018398578</v>
       </c>
       <c r="L23">
-        <v>1.02839791388866</v>
+        <v>1.053447705720762</v>
       </c>
       <c r="M23">
-        <v>1.038370615058278</v>
+        <v>1.059392845891147</v>
       </c>
       <c r="N23">
-        <v>1.012422252380607</v>
+        <v>1.016842703336367</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.001159929349738</v>
+        <v>1.033022708632118</v>
       </c>
       <c r="D24">
-        <v>1.024217324596995</v>
+        <v>1.044118887938718</v>
       </c>
       <c r="E24">
-        <v>1.018890296634178</v>
+        <v>1.051056803130947</v>
       </c>
       <c r="F24">
-        <v>1.028851558623264</v>
+        <v>1.056955324215858</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046169396375845</v>
+        <v>1.04044280643835</v>
       </c>
       <c r="J24">
-        <v>1.028613401739844</v>
+        <v>1.039232351033162</v>
       </c>
       <c r="K24">
-        <v>1.037832097586781</v>
+        <v>1.047460859575631</v>
       </c>
       <c r="L24">
-        <v>1.032593604398758</v>
+        <v>1.054375148891373</v>
       </c>
       <c r="M24">
-        <v>1.042390269338591</v>
+        <v>1.060253851465078</v>
       </c>
       <c r="N24">
-        <v>1.013398463545016</v>
+        <v>1.017039605038697</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007601618207029</v>
+        <v>1.034315067710375</v>
       </c>
       <c r="D25">
-        <v>1.02911349707851</v>
+        <v>1.045156638546147</v>
       </c>
       <c r="E25">
-        <v>1.025100554441251</v>
+        <v>1.052454216999414</v>
       </c>
       <c r="F25">
-        <v>1.034828631607452</v>
+        <v>1.058271849602742</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047988787576817</v>
+        <v>1.04073406334401</v>
       </c>
       <c r="J25">
-        <v>1.031875838052025</v>
+        <v>1.039916827790101</v>
       </c>
       <c r="K25">
-        <v>1.041276069773246</v>
+        <v>1.048180050021065</v>
       </c>
       <c r="L25">
-        <v>1.037321323268015</v>
+        <v>1.055455310480519</v>
       </c>
       <c r="M25">
-        <v>1.046909308536419</v>
+        <v>1.061255391486497</v>
       </c>
       <c r="N25">
-        <v>1.014491219040781</v>
+        <v>1.017268024192225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_192/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_192/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035348512579854</v>
+        <v>1.01257654352501</v>
       </c>
       <c r="D2">
-        <v>1.045986838666213</v>
+        <v>1.032908334679707</v>
       </c>
       <c r="E2">
-        <v>1.05357434130816</v>
+        <v>1.029928539553258</v>
       </c>
       <c r="F2">
-        <v>1.059326269084725</v>
+        <v>1.039468323365955</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040963432075383</v>
+        <v>1.049367304060373</v>
       </c>
       <c r="J2">
-        <v>1.040462777023537</v>
+        <v>1.034387490700429</v>
       </c>
       <c r="K2">
-        <v>1.048753539353578</v>
+        <v>1.043927478963702</v>
       </c>
       <c r="L2">
-        <v>1.056319933861278</v>
+        <v>1.040986092620959</v>
       </c>
       <c r="M2">
-        <v>1.062056078240965</v>
+        <v>1.050403879785919</v>
       </c>
       <c r="N2">
-        <v>1.01745013317492</v>
+        <v>1.015332377636396</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03610039450289</v>
+        <v>1.016100237176198</v>
       </c>
       <c r="D3">
-        <v>1.046591047304709</v>
+        <v>1.035603272174236</v>
       </c>
       <c r="E3">
-        <v>1.054390830399724</v>
+        <v>1.03336609799136</v>
       </c>
       <c r="F3">
-        <v>1.060094361289297</v>
+        <v>1.042767654739408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041128256344664</v>
+        <v>1.050327726390252</v>
       </c>
       <c r="J3">
-        <v>1.040859167824291</v>
+        <v>1.036161412849722</v>
       </c>
       <c r="K3">
-        <v>1.049169838865575</v>
+        <v>1.045800001021222</v>
       </c>
       <c r="L3">
-        <v>1.056949485923447</v>
+        <v>1.043589136788227</v>
       </c>
       <c r="M3">
-        <v>1.062638494680713</v>
+        <v>1.052881066415316</v>
       </c>
       <c r="N3">
-        <v>1.017582306873081</v>
+        <v>1.015926367192222</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03658759920725</v>
+        <v>1.018341174855252</v>
       </c>
       <c r="D4">
-        <v>1.046982651030516</v>
+        <v>1.037320203647612</v>
       </c>
       <c r="E4">
-        <v>1.054920611545419</v>
+        <v>1.035560424880281</v>
       </c>
       <c r="F4">
-        <v>1.060592507373086</v>
+        <v>1.044871786485597</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041234109023939</v>
+        <v>1.050930941397948</v>
       </c>
       <c r="J4">
-        <v>1.041115643479675</v>
+        <v>1.037287069674377</v>
       </c>
       <c r="K4">
-        <v>1.049439155367126</v>
+        <v>1.046988142517427</v>
       </c>
       <c r="L4">
-        <v>1.057357651156764</v>
+        <v>1.045247805237765</v>
       </c>
       <c r="M4">
-        <v>1.063015830692418</v>
+        <v>1.054457209900464</v>
       </c>
       <c r="N4">
-        <v>1.017667804444458</v>
+        <v>1.016303230972762</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036792582555313</v>
+        <v>1.019274157933137</v>
       </c>
       <c r="D5">
-        <v>1.047147432576238</v>
+        <v>1.038035723343773</v>
       </c>
       <c r="E5">
-        <v>1.055143678436314</v>
+        <v>1.036475943105969</v>
       </c>
       <c r="F5">
-        <v>1.060802198504844</v>
+        <v>1.045749198543233</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041278417277317</v>
+        <v>1.051180235904398</v>
       </c>
       <c r="J5">
-        <v>1.041223460783169</v>
+        <v>1.037755101458539</v>
       </c>
       <c r="K5">
-        <v>1.049552360923865</v>
+        <v>1.047482129879031</v>
       </c>
       <c r="L5">
-        <v>1.057529434250782</v>
+        <v>1.04593912084304</v>
       </c>
       <c r="M5">
-        <v>1.063174574367365</v>
+        <v>1.055113567135862</v>
       </c>
       <c r="N5">
-        <v>1.017703740537214</v>
+        <v>1.016459910220254</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036827009633661</v>
+        <v>1.019430283228356</v>
       </c>
       <c r="D6">
-        <v>1.047175108940471</v>
+        <v>1.038155498495465</v>
       </c>
       <c r="E6">
-        <v>1.055181152627767</v>
+        <v>1.036629259378259</v>
       </c>
       <c r="F6">
-        <v>1.060837422368554</v>
+        <v>1.045896105364744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041285845534018</v>
+        <v>1.0512218435547</v>
       </c>
       <c r="J6">
-        <v>1.041241563448092</v>
+        <v>1.037833384797817</v>
       </c>
       <c r="K6">
-        <v>1.049571367708002</v>
+        <v>1.047564752981146</v>
       </c>
       <c r="L6">
-        <v>1.057558288502754</v>
+        <v>1.046054849091014</v>
       </c>
       <c r="M6">
-        <v>1.063201234622547</v>
+        <v>1.055223410051369</v>
       </c>
       <c r="N6">
-        <v>1.017709773936189</v>
+        <v>1.016486115564947</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03659033756873</v>
+        <v>1.0183536768674</v>
       </c>
       <c r="D7">
-        <v>1.0469848522574</v>
+        <v>1.037329788923772</v>
       </c>
       <c r="E7">
-        <v>1.0549235908158</v>
+        <v>1.035572685225089</v>
       </c>
       <c r="F7">
-        <v>1.060595308216038</v>
+        <v>1.044883538403381</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041234701829223</v>
+        <v>1.050934289276394</v>
       </c>
       <c r="J7">
-        <v>1.041117084161288</v>
+        <v>1.037293343794719</v>
       </c>
       <c r="K7">
-        <v>1.049440668086441</v>
+        <v>1.046994764684422</v>
       </c>
       <c r="L7">
-        <v>1.057359945784876</v>
+        <v>1.045257065955781</v>
       </c>
       <c r="M7">
-        <v>1.063017951396827</v>
+        <v>1.054466004549961</v>
       </c>
       <c r="N7">
-        <v>1.017668284652718</v>
+        <v>1.016305331371972</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035602471219987</v>
+        <v>1.013775653830405</v>
       </c>
       <c r="D8">
-        <v>1.046190900042536</v>
+        <v>1.033824761009359</v>
       </c>
       <c r="E8">
-        <v>1.053849974400453</v>
+        <v>1.031096617314758</v>
       </c>
       <c r="F8">
-        <v>1.059585612281725</v>
+        <v>1.040589837764424</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041019300313244</v>
+        <v>1.049695703686727</v>
       </c>
       <c r="J8">
-        <v>1.040596741617253</v>
+        <v>1.034991662892362</v>
       </c>
       <c r="K8">
-        <v>1.048894240692604</v>
+        <v>1.044565247221044</v>
       </c>
       <c r="L8">
-        <v>1.056532526590453</v>
+        <v>1.041871216825326</v>
       </c>
       <c r="M8">
-        <v>1.062252809469844</v>
+        <v>1.051246692003082</v>
       </c>
       <c r="N8">
-        <v>1.017494807339476</v>
+        <v>1.015534692919054</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033867070494493</v>
+        <v>1.005396721928327</v>
       </c>
       <c r="D9">
-        <v>1.04479684556605</v>
+        <v>1.027435378247252</v>
       </c>
       <c r="E9">
-        <v>1.051969388790264</v>
+        <v>1.02296980377375</v>
       </c>
       <c r="F9">
-        <v>1.05781521925033</v>
+        <v>1.032778972713941</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040633645421118</v>
+        <v>1.047370143982018</v>
       </c>
       <c r="J9">
-        <v>1.039679769025857</v>
+        <v>1.0307603368571</v>
       </c>
       <c r="K9">
-        <v>1.04793099143253</v>
+        <v>1.040098482912414</v>
       </c>
       <c r="L9">
-        <v>1.055080737509587</v>
+        <v>1.035700888953235</v>
       </c>
       <c r="M9">
-        <v>1.060908237516747</v>
+        <v>1.045361713496582</v>
       </c>
       <c r="N9">
-        <v>1.017188927031335</v>
+        <v>1.014117595960177</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.032713846963709</v>
+        <v>0.9995832268889974</v>
       </c>
       <c r="D10">
-        <v>1.043870948615184</v>
+        <v>1.023021938959917</v>
       </c>
       <c r="E10">
-        <v>1.050723368562417</v>
+        <v>1.017376946556112</v>
       </c>
       <c r="F10">
-        <v>1.056641017851074</v>
+        <v>1.027393629919199</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040372494253357</v>
+        <v>1.045718780199537</v>
       </c>
       <c r="J10">
-        <v>1.039068489951914</v>
+        <v>1.027813390272009</v>
       </c>
       <c r="K10">
-        <v>1.047288658934468</v>
+        <v>1.036987604706315</v>
       </c>
       <c r="L10">
-        <v>1.054117174098038</v>
+        <v>1.031439386242784</v>
       </c>
       <c r="M10">
-        <v>1.060014454028772</v>
+        <v>1.041285292718072</v>
       </c>
       <c r="N10">
-        <v>1.016984906253997</v>
+        <v>1.013130483967788</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.032215393033288</v>
+        <v>0.9970077242380864</v>
       </c>
       <c r="D11">
-        <v>1.043470873572091</v>
+        <v>1.021071884899835</v>
       </c>
       <c r="E11">
-        <v>1.050185682928031</v>
+        <v>1.014910378617458</v>
       </c>
       <c r="F11">
-        <v>1.056134040874401</v>
+        <v>1.025016297399203</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040258462679981</v>
+        <v>1.044978621668733</v>
       </c>
       <c r="J11">
-        <v>1.038803824443431</v>
+        <v>1.026505517386464</v>
       </c>
       <c r="K11">
-        <v>1.047010500531672</v>
+        <v>1.035607064396598</v>
       </c>
       <c r="L11">
-        <v>1.053700982335762</v>
+        <v>1.029556480489699</v>
       </c>
       <c r="M11">
-        <v>1.059628074616983</v>
+        <v>1.039481375711852</v>
       </c>
       <c r="N11">
-        <v>1.016896545069566</v>
+        <v>1.012692380674583</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.032030382178245</v>
+        <v>0.9960419393127343</v>
       </c>
       <c r="D12">
-        <v>1.043322396786642</v>
+        <v>1.020341463373371</v>
       </c>
       <c r="E12">
-        <v>1.049986242654594</v>
+        <v>1.013987155115641</v>
       </c>
       <c r="F12">
-        <v>1.055945948660325</v>
+        <v>1.024126137290139</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04021596412963</v>
+        <v>1.044699818125646</v>
       </c>
       <c r="J12">
-        <v>1.038705520590026</v>
+        <v>1.026014761169808</v>
       </c>
       <c r="K12">
-        <v>1.046907177949729</v>
+        <v>1.035089060749181</v>
       </c>
       <c r="L12">
-        <v>1.053546547932665</v>
+        <v>1.028851201387794</v>
       </c>
       <c r="M12">
-        <v>1.059484653297056</v>
+        <v>1.038805269218849</v>
       </c>
       <c r="N12">
-        <v>1.016863721440377</v>
+        <v>1.012527989396852</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.032070061397321</v>
+        <v>0.996249522896812</v>
       </c>
       <c r="D13">
-        <v>1.043354239695627</v>
+        <v>1.020498420340648</v>
       </c>
       <c r="E13">
-        <v>1.050029010558216</v>
+        <v>1.014185512744693</v>
       </c>
       <c r="F13">
-        <v>1.055986285014183</v>
+        <v>1.024317406274671</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040225086632693</v>
+        <v>1.04475979954084</v>
       </c>
       <c r="J13">
-        <v>1.038726606866047</v>
+        <v>1.026120257093615</v>
       </c>
       <c r="K13">
-        <v>1.046929341068745</v>
+        <v>1.035200412942357</v>
       </c>
       <c r="L13">
-        <v>1.053579667467946</v>
+        <v>1.029002756203291</v>
       </c>
       <c r="M13">
-        <v>1.059515413229203</v>
+        <v>1.038950573886285</v>
       </c>
       <c r="N13">
-        <v>1.016870762318952</v>
+        <v>1.012563327944865</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.032200097169386</v>
+        <v>0.9969280806526997</v>
       </c>
       <c r="D14">
-        <v>1.043458597793461</v>
+        <v>1.021011633490166</v>
       </c>
       <c r="E14">
-        <v>1.050169191405508</v>
+        <v>1.014834209854833</v>
       </c>
       <c r="F14">
-        <v>1.056118488579489</v>
+        <v>1.024942863290158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04025495263173</v>
+        <v>1.044955655362634</v>
       </c>
       <c r="J14">
-        <v>1.038795698512599</v>
+        <v>1.02646505341391</v>
       </c>
       <c r="K14">
-        <v>1.047001959890515</v>
+        <v>1.035564353369853</v>
       </c>
       <c r="L14">
-        <v>1.05368821351101</v>
+        <v>1.029498303290683</v>
       </c>
       <c r="M14">
-        <v>1.059616217372536</v>
+        <v>1.039425613308625</v>
       </c>
       <c r="N14">
-        <v>1.016893831903326</v>
+        <v>1.012678826242578</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.032280234730766</v>
+        <v>0.9973449411026493</v>
       </c>
       <c r="D15">
-        <v>1.043522913402814</v>
+        <v>1.021327027876647</v>
       </c>
       <c r="E15">
-        <v>1.050255598637407</v>
+        <v>1.015232952864453</v>
       </c>
       <c r="F15">
-        <v>1.056199972992239</v>
+        <v>1.025327276683822</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040273335247259</v>
+        <v>1.045075811837602</v>
       </c>
       <c r="J15">
-        <v>1.038838268819328</v>
+        <v>1.026676832041391</v>
       </c>
       <c r="K15">
-        <v>1.047046702500208</v>
+        <v>1.035787893380348</v>
       </c>
       <c r="L15">
-        <v>1.053755113269649</v>
+        <v>1.029802839498936</v>
       </c>
       <c r="M15">
-        <v>1.059678339066642</v>
+        <v>1.039717492073781</v>
       </c>
       <c r="N15">
-        <v>1.016908045538458</v>
+        <v>1.012749766835449</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.032746946830346</v>
+        <v>0.9997528957638464</v>
       </c>
       <c r="D16">
-        <v>1.043897518243085</v>
+        <v>1.023150516913957</v>
       </c>
       <c r="E16">
-        <v>1.050759092144397</v>
+        <v>1.017539675217605</v>
       </c>
       <c r="F16">
-        <v>1.056674695196594</v>
+        <v>1.027550424149356</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040380042175899</v>
+        <v>1.045767364381515</v>
       </c>
       <c r="J16">
-        <v>1.039086055515702</v>
+        <v>1.027899504433983</v>
       </c>
       <c r="K16">
-        <v>1.04730711900723</v>
+        <v>1.037078505871842</v>
       </c>
       <c r="L16">
-        <v>1.054144817394107</v>
+        <v>1.031563536109526</v>
       </c>
       <c r="M16">
-        <v>1.06004011028766</v>
+        <v>1.041404176569505</v>
       </c>
       <c r="N16">
-        <v>1.016990770138789</v>
+        <v>1.01315932976332</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.033039945220073</v>
+        <v>1.001247491674061</v>
       </c>
       <c r="D17">
-        <v>1.044132725479102</v>
+        <v>1.024283745482478</v>
       </c>
       <c r="E17">
-        <v>1.05107541704338</v>
+        <v>1.01897441609166</v>
       </c>
       <c r="F17">
-        <v>1.056972868368968</v>
+        <v>1.028932582069467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040446722454617</v>
+        <v>1.046194363650792</v>
       </c>
       <c r="J17">
-        <v>1.039241492498064</v>
+        <v>1.02865781488206</v>
       </c>
       <c r="K17">
-        <v>1.047470465961849</v>
+        <v>1.037878980727705</v>
       </c>
       <c r="L17">
-        <v>1.054389547596741</v>
+        <v>1.032657737939275</v>
       </c>
       <c r="M17">
-        <v>1.060267211049471</v>
+        <v>1.042451647984724</v>
       </c>
       <c r="N17">
-        <v>1.017042656389431</v>
+        <v>1.013413340487519</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.033210932875576</v>
+        <v>1.002113673518485</v>
       </c>
       <c r="D18">
-        <v>1.04426999922135</v>
+        <v>1.024940990779577</v>
       </c>
       <c r="E18">
-        <v>1.051260102288253</v>
+        <v>1.019806972057731</v>
       </c>
       <c r="F18">
-        <v>1.057146928450724</v>
+        <v>1.02973440676797</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040485524084257</v>
+        <v>1.04644100990962</v>
       </c>
       <c r="J18">
-        <v>1.039332158328045</v>
+        <v>1.029097065948411</v>
       </c>
       <c r="K18">
-        <v>1.047565741044207</v>
+        <v>1.038342663272808</v>
       </c>
       <c r="L18">
-        <v>1.054532394567078</v>
+        <v>1.033292350949519</v>
       </c>
       <c r="M18">
-        <v>1.060399736201435</v>
+        <v>1.043058892286647</v>
       </c>
       <c r="N18">
-        <v>1.017072918911512</v>
+        <v>1.013560474380553</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.033269249884428</v>
+        <v>1.002408082123494</v>
       </c>
       <c r="D19">
-        <v>1.044316819754991</v>
+        <v>1.025164465389945</v>
       </c>
       <c r="E19">
-        <v>1.051323105354945</v>
+        <v>1.020090130827412</v>
       </c>
       <c r="F19">
-        <v>1.05720630223932</v>
+        <v>1.030007076392567</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040498738834094</v>
+        <v>1.04652470331</v>
       </c>
       <c r="J19">
-        <v>1.039363073343019</v>
+        <v>1.029246325514206</v>
       </c>
       <c r="K19">
-        <v>1.047598226927856</v>
+        <v>1.038500225887891</v>
       </c>
       <c r="L19">
-        <v>1.054581118594599</v>
+        <v>1.033508130920869</v>
       </c>
       <c r="M19">
-        <v>1.060444934164643</v>
+        <v>1.043265321122055</v>
       </c>
       <c r="N19">
-        <v>1.01708323732108</v>
+        <v>1.013610470817841</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.033008500288583</v>
+        <v>1.00108771663932</v>
       </c>
       <c r="D20">
-        <v>1.044107481540551</v>
+        <v>1.024162550016808</v>
       </c>
       <c r="E20">
-        <v>1.051041459918385</v>
+        <v>1.018820929262588</v>
       </c>
       <c r="F20">
-        <v>1.056940862638332</v>
+        <v>1.028784743079143</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040439577786433</v>
+        <v>1.046148801216883</v>
       </c>
       <c r="J20">
-        <v>1.039224815357335</v>
+        <v>1.028576772930633</v>
       </c>
       <c r="K20">
-        <v>1.047452940620555</v>
+        <v>1.037793431740802</v>
       </c>
       <c r="L20">
-        <v>1.054363280006863</v>
+        <v>1.032540716112637</v>
       </c>
       <c r="M20">
-        <v>1.06024283895185</v>
+        <v>1.042339651395572</v>
       </c>
       <c r="N20">
-        <v>1.017037089673688</v>
+        <v>1.013386194088107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03216180107414</v>
+        <v>0.9967285174663116</v>
       </c>
       <c r="D21">
-        <v>1.043427863360177</v>
+        <v>1.020860674833609</v>
       </c>
       <c r="E21">
-        <v>1.050127903889235</v>
+        <v>1.014643381247584</v>
       </c>
       <c r="F21">
-        <v>1.056079551788956</v>
+        <v>1.024758880505787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040246161757002</v>
+        <v>1.044898088553158</v>
       </c>
       <c r="J21">
-        <v>1.038775352604228</v>
+        <v>1.026363657677202</v>
       </c>
       <c r="K21">
-        <v>1.046980575505488</v>
+        <v>1.035457327244372</v>
       </c>
       <c r="L21">
-        <v>1.053656245037146</v>
+        <v>1.029352541342344</v>
       </c>
       <c r="M21">
-        <v>1.05958653036695</v>
+        <v>1.039285894927472</v>
       </c>
       <c r="N21">
-        <v>1.016887038546772</v>
+        <v>1.012644861167652</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.031630242042819</v>
+        <v>0.9939346968543676</v>
       </c>
       <c r="D22">
-        <v>1.043001307208026</v>
+        <v>1.018749331706827</v>
       </c>
       <c r="E22">
-        <v>1.049555136716098</v>
+        <v>1.011975958224377</v>
       </c>
       <c r="F22">
-        <v>1.055539294748317</v>
+        <v>1.022186355656767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040123731397344</v>
+        <v>1.044089236859964</v>
       </c>
       <c r="J22">
-        <v>1.038492785392114</v>
+        <v>1.024943429900799</v>
       </c>
       <c r="K22">
-        <v>1.046683569003249</v>
+        <v>1.033958291685541</v>
       </c>
       <c r="L22">
-        <v>1.053212617696725</v>
+        <v>1.027313844639133</v>
       </c>
       <c r="M22">
-        <v>1.059174446371351</v>
+        <v>1.037330747269762</v>
       </c>
       <c r="N22">
-        <v>1.016792682082593</v>
+        <v>1.012169120345024</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.031911955579656</v>
+        <v>0.995420912409001</v>
       </c>
       <c r="D23">
-        <v>1.043227361232575</v>
+        <v>1.019872020774173</v>
       </c>
       <c r="E23">
-        <v>1.0498586169504</v>
+        <v>1.01339398282562</v>
       </c>
       <c r="F23">
-        <v>1.055825572832642</v>
+        <v>1.023554114114304</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040188711701922</v>
+        <v>1.044520191243746</v>
       </c>
       <c r="J23">
-        <v>1.03864257652928</v>
+        <v>1.025699105098931</v>
       </c>
       <c r="K23">
-        <v>1.046841018398578</v>
+        <v>1.034755885464255</v>
       </c>
       <c r="L23">
-        <v>1.053447705720762</v>
+        <v>1.028397913888659</v>
       </c>
       <c r="M23">
-        <v>1.059392845891147</v>
+        <v>1.038370615058277</v>
       </c>
       <c r="N23">
-        <v>1.016842703336367</v>
+        <v>1.012422252380606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.033022708632118</v>
+        <v>1.001159929349738</v>
       </c>
       <c r="D24">
-        <v>1.044118887938718</v>
+        <v>1.024217324596995</v>
       </c>
       <c r="E24">
-        <v>1.051056803130947</v>
+        <v>1.018890296634178</v>
       </c>
       <c r="F24">
-        <v>1.056955324215858</v>
+        <v>1.028851558623264</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04044280643835</v>
+        <v>1.046169396375845</v>
       </c>
       <c r="J24">
-        <v>1.039232351033162</v>
+        <v>1.028613401739844</v>
       </c>
       <c r="K24">
-        <v>1.047460859575631</v>
+        <v>1.037832097586782</v>
       </c>
       <c r="L24">
-        <v>1.054375148891373</v>
+        <v>1.032593604398758</v>
       </c>
       <c r="M24">
-        <v>1.060253851465078</v>
+        <v>1.042390269338591</v>
       </c>
       <c r="N24">
-        <v>1.017039605038697</v>
+        <v>1.013398463545017</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.034315067710375</v>
+        <v>1.007601618207029</v>
       </c>
       <c r="D25">
-        <v>1.045156638546147</v>
+        <v>1.02911349707851</v>
       </c>
       <c r="E25">
-        <v>1.052454216999414</v>
+        <v>1.025100554441251</v>
       </c>
       <c r="F25">
-        <v>1.058271849602742</v>
+        <v>1.034828631607452</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04073406334401</v>
+        <v>1.047988787576817</v>
       </c>
       <c r="J25">
-        <v>1.039916827790101</v>
+        <v>1.031875838052025</v>
       </c>
       <c r="K25">
-        <v>1.048180050021065</v>
+        <v>1.041276069773246</v>
       </c>
       <c r="L25">
-        <v>1.055455310480519</v>
+        <v>1.037321323268015</v>
       </c>
       <c r="M25">
-        <v>1.061255391486497</v>
+        <v>1.046909308536419</v>
       </c>
       <c r="N25">
-        <v>1.017268024192225</v>
+        <v>1.014491219040781</v>
       </c>
     </row>
   </sheetData>
